--- a/biology/Biochimie/N-Ribosylnicotinamide/N-Ribosylnicotinamide.xlsx
+++ b/biology/Biochimie/N-Ribosylnicotinamide/N-Ribosylnicotinamide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le N-ribosylnicotinamide, ou nicotinamide β-riboside, est un riboside converti par la ribosylnicotinamide kinase (EC 2.7.1.22) en nicotinamide adénine dinucléotide (NAD+) via le nicotinamide mononucléotide (NMN) :
 ATP + N-ribosylnicotinamide → ADP + NMN.
-Cette molécule a montré une certaine efficacité dans l'augmentation du métabolisme chez la souris[2], et elle est envisagée comme supplément alimentaire en cas de diabète, syndrome métabolique ou autre dysfonction liée à une activité mitochondriale amoindrie[3].
-Elle améliore la régénération musculaire chez la souris âgée par stimulation des cellules souches et allonge leur durée de vie[4].
+Cette molécule a montré une certaine efficacité dans l'augmentation du métabolisme chez la souris, et elle est envisagée comme supplément alimentaire en cas de diabète, syndrome métabolique ou autre dysfonction liée à une activité mitochondriale amoindrie.
+Elle améliore la régénération musculaire chez la souris âgée par stimulation des cellules souches et allonge leur durée de vie.
 </t>
         </is>
       </c>
